--- a/tables/Table2_initial_depletion_priors.xlsx
+++ b/tables/Table2_initial_depletion_priors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/com_review/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F34CC-EE50-FA4D-A236-1F81F8174D84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E645695-B6BC-DA47-9C29-09D41D7C71CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="3560" windowWidth="24640" windowHeight="14000" xr2:uid="{36D3C61C-C811-924D-9E3A-3D5A5F35B74D}"/>
+    <workbookView xWindow="13400" yWindow="3180" windowWidth="24640" windowHeight="14000" xr2:uid="{36D3C61C-C811-924D-9E3A-3D5A5F35B74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Saturation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>0.5 - 0.9</t>
   </si>
   <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>CMSY</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Depletion (B/K)</t>
+  </si>
+  <si>
+    <t>Year &lt; 1960</t>
+  </si>
+  <si>
+    <t>Year ≥ 1960</t>
+  </si>
+  <si>
+    <t>Catch-MSY</t>
+  </si>
+  <si>
+    <t>0.3 - 0.6</t>
+  </si>
+  <si>
+    <r>
+      <t>C/C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; 0.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C/C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≥ 0.5</t>
+    </r>
+  </si>
+  <si>
     <t>0.2 - 0.6</t>
-  </si>
-  <si>
-    <t>Depletion</t>
-  </si>
-  <si>
-    <t>0.1 - 0.5</t>
-  </si>
-  <si>
-    <t>0.4 - 0.8</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>CMSY</t>
-  </si>
-  <si>
-    <t>&lt; 1960</t>
-  </si>
-  <si>
-    <t>≥ 1960</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +124,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,54 +480,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4A346D-1337-D048-AAEC-62289B0D658D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" thickTop="1">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
